--- a/config_5.25/act_ty_phb_config.xlsx
+++ b/config_5.25/act_ty_phb_config.xlsx
@@ -29,7 +29,7 @@
     <t>item_key</t>
   </si>
   <si>
-    <t>reward_item_key|奖励道具</t>
+    <t>reward_item_key|奖励道具图片key</t>
   </si>
   <si>
     <t>rank_type|排行榜类型</t>
@@ -62,7 +62,7 @@
     <t>prop_web_chip_huafei</t>
   </si>
   <si>
-    <t>hlwyt_016_fqdr_rank</t>
+    <t>ymshf_017_hldr_rank</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -71,10 +71,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_015_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_hlwyt_016_fqdr_rank</t>
+    <t>act_016_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_ymshf_017_hldr_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -116,25 +116,25 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>福气达到10万</t>
-  </si>
-  <si>
-    <t>福气达到6万</t>
-  </si>
-  <si>
-    <t>福气达到3万</t>
-  </si>
-  <si>
-    <t>福气达到15000</t>
-  </si>
-  <si>
-    <t>福气达到1万</t>
-  </si>
-  <si>
-    <t>福气达到6000</t>
-  </si>
-  <si>
-    <t>福气达到3000</t>
+    <t>欢乐券数达到300万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到180万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到90万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到45万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到30万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到18万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到9万</t>
   </si>
 </sst>
 </file>
@@ -142,18 +142,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -162,6 +168,80 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -170,47 +250,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,16 +266,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,61 +284,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,25 +333,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,145 +501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,21 +524,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,17 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,15 +592,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -618,6 +600,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -626,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,137 +644,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,6 +805,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1161,8 +1173,8 @@
   <sheetPr/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1170,7 +1182,8 @@
     <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="19.125" customWidth="1"/>
     <col min="8" max="8" width="17.25" style="1" customWidth="1"/>
@@ -1212,7 +1225,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1241,11 +1254,11 @@
       <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9">
-        <v>1621296000</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1621871999</v>
+      <c r="G2" s="10">
+        <v>1621900800</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1622476799</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>16</v>
@@ -1256,7 +1269,7 @@
       <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1">
@@ -1264,34 +1277,34 @@
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:13">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:13">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="9" spans="11:11">
       <c r="K9" s="1" t="s">
@@ -1311,7 +1324,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1427,7 +1440,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="1">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>33</v>
@@ -1444,7 +1457,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>60000</v>
+        <v>1800000</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>34</v>
@@ -1461,7 +1474,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="1">
-        <v>30000</v>
+        <v>900000</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>35</v>
@@ -1478,7 +1491,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="1">
-        <v>15000</v>
+        <v>450000</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>36</v>
@@ -1495,7 +1508,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="1">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>37</v>
@@ -1512,7 +1525,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="1">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>38</v>
@@ -1529,7 +1542,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="1">
-        <v>3000</v>
+        <v>90000</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>39</v>

--- a/config_5.25/act_ty_phb_config.xlsx
+++ b/config_5.25/act_ty_phb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>line|</t>
   </si>
@@ -41,6 +41,9 @@
     <t>e_time|结束时间</t>
   </si>
   <si>
+    <t>gotoUI|跳转的UI,找客户端确认</t>
+  </si>
+  <si>
     <t>award|奖励</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>ymshf_017_hldr_rank</t>
+  </si>
+  <si>
+    <t>game_Fishing3DHall</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -143,11 +149,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +164,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -169,7 +180,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +195,59 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,51 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -268,7 +287,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,37 +295,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +535,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -538,6 +558,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,41 +601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -624,18 +624,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,135 +655,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -808,9 +820,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,11 +829,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -874,6 +884,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 4" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1171,10 +1182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1187,14 +1198,15 @@
     <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="19.125" customWidth="1"/>
     <col min="8" max="8" width="17.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="56.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="58.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="56.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="58.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1225,17 +1237,20 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:14">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1246,13 +1261,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="10">
         <v>1621900800</v>
@@ -1260,55 +1275,60 @@
       <c r="H2" s="10">
         <v>1622476799</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>16</v>
+      <c r="I2" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1">
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:13">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+    <row r="3" s="5" customFormat="1" spans="1:14">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:13">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:14">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="9" spans="11:11">
-      <c r="K9" s="1" t="s">
-        <v>20</v>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="9" spans="12:12">
+      <c r="L9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1343,7 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -1337,19 +1357,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="14.1" customHeight="1" spans="1:3">
@@ -1360,7 +1380,7 @@
         <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1371,7 +1391,7 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1382,7 +1402,7 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1393,7 +1413,7 @@
         <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1404,7 +1424,7 @@
         <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1415,7 +1435,7 @@
         <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1426,7 +1446,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1437,13 +1457,13 @@
         <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>3000000</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1454,13 +1474,13 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1">
         <v>1800000</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1471,13 +1491,13 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>900000</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1488,13 +1508,13 @@
         <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1">
         <v>450000</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1505,13 +1525,13 @@
         <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1">
         <v>300000</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1522,13 +1542,13 @@
         <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>180000</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1539,13 +1559,13 @@
         <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1">
         <v>90000</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:5">

--- a/config_5.25/act_ty_phb_config.xlsx
+++ b/config_5.25/act_ty_phb_config.xlsx
@@ -59,7 +59,7 @@
     <t>type_info</t>
   </si>
   <si>
-    <t>prop_grade</t>
+    <t>prop_fish_drop_act_0</t>
   </si>
   <si>
     <t>prop_web_chip_huafei</t>
@@ -149,17 +149,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -179,6 +185,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -186,68 +229,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,19 +267,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,8 +290,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -295,29 +323,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,25 +356,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,25 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,13 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +470,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,85 +506,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,6 +549,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,21 +578,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -592,11 +592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,150 +649,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,29 +814,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,7 +1194,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1250,7 +1259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:14">
+    <row r="2" ht="16.5" spans="1:14">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1278,16 +1287,16 @@
       <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="16" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="1">
